--- a/s06_badda_progress.xlsx
+++ b/s06_badda_progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UTILITY RELOCATION\extra\web app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5ACD0A-D445-46C9-A7C5-BE169ECE3564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A856369-0F0E-4A57-8FF5-3D26016999A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="13290" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Corridor Work" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="58">
   <si>
     <t>Corridor</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Size</t>
   </si>
   <si>
-    <t>750mm</t>
-  </si>
-  <si>
     <t>315mm</t>
   </si>
   <si>
@@ -175,6 +172,36 @@
   </si>
   <si>
     <t>400mm</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>1200mm</t>
+  </si>
+  <si>
+    <t>DESCO</t>
+  </si>
+  <si>
+    <t>600mm</t>
+  </si>
+  <si>
+    <t>75mm</t>
+  </si>
+  <si>
+    <t>1524mm</t>
+  </si>
+  <si>
+    <t>450mm</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S4</t>
   </si>
 </sst>
 </file>
@@ -185,7 +212,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +248,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -537,14 +570,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341F8D72-1DB1-4E58-BF84-59E9EEAD3E98}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
@@ -560,10 +594,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -583,10 +617,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -595,28 +629,28 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>460</v>
+        <v>344</v>
       </c>
       <c r="H2">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
         <f>H2/G2*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -625,28 +659,28 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>460</v>
+        <v>344</v>
       </c>
       <c r="H3">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I48" si="0">H3/G3*100</f>
-        <v>100</v>
+        <f t="shared" ref="I3:I45" si="0">H3/G3*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -658,250 +692,250 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>460</v>
+        <v>344</v>
       </c>
       <c r="H4">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>460</v>
+        <v>344</v>
       </c>
       <c r="H5">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G6">
-        <v>440</v>
+        <v>344</v>
       </c>
       <c r="H6">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7">
-        <v>130</v>
+        <v>344</v>
       </c>
       <c r="H7">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8">
-        <v>440</v>
+        <v>344</v>
       </c>
       <c r="H8">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>440</v>
+        <v>344</v>
       </c>
       <c r="H9">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>440</v>
+        <v>344</v>
       </c>
       <c r="H10">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>440</v>
+        <v>344</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>22.727272727272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12">
-        <v>440</v>
+        <v>344</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -913,25 +947,25 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>440</v>
+        <v>344</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -943,295 +977,295 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14">
-        <v>52</v>
+        <v>344</v>
       </c>
       <c r="H14">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15">
-        <v>52</v>
+        <v>344</v>
       </c>
       <c r="H15">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="G16">
-        <v>52</v>
+        <v>344</v>
       </c>
       <c r="H16">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17">
-        <v>52</v>
+        <v>344</v>
       </c>
       <c r="H17">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18">
-        <v>52</v>
+        <v>344</v>
       </c>
       <c r="H18">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="G19">
-        <v>52</v>
+        <v>344</v>
       </c>
       <c r="H19">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" ref="I19" si="1">H19/G19*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20">
-        <v>52</v>
+        <v>344</v>
       </c>
       <c r="H20">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21">
-        <v>52</v>
+        <v>344</v>
       </c>
       <c r="H21">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22">
-        <v>52</v>
+        <v>344</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="0"/>
-        <v>19.230769230769234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23">
-        <v>52</v>
+        <v>344</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1243,25 +1277,25 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24">
-        <v>52</v>
+        <v>344</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,8 +1309,8 @@
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25">
-        <v>2</v>
+      <c r="B25" t="s">
+        <v>56</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1285,28 +1319,28 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="H25">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B26">
-        <v>2</v>
+      <c r="B26" t="s">
+        <v>56</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1315,28 +1349,28 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="H26">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B27">
-        <v>2</v>
+      <c r="B27" t="s">
+        <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1348,250 +1382,250 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="H27">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="B28">
-        <v>2</v>
+      <c r="B28" t="s">
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G28">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="H28">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B29">
-        <v>2</v>
+      <c r="B29" t="s">
+        <v>56</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="G29">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="H29">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="B30">
-        <v>2</v>
+      <c r="B30" t="s">
+        <v>56</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="G30">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="H30">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B31">
-        <v>2</v>
+      <c r="B31" t="s">
+        <v>56</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G31">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="H31">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>5</v>
       </c>
-      <c r="B32">
-        <v>2</v>
+      <c r="B32" t="s">
+        <v>56</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="H32">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>5</v>
       </c>
-      <c r="B33">
-        <v>2</v>
+      <c r="B33" t="s">
+        <v>56</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="H33">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>5</v>
       </c>
-      <c r="B34">
-        <v>2</v>
+      <c r="B34" t="s">
+        <v>56</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="H34">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="0"/>
-        <v>23.076923076923077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>5</v>
       </c>
-      <c r="B35">
-        <v>2</v>
+      <c r="B35" t="s">
+        <v>56</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1605,23 +1639,23 @@
       <c r="A36" t="s">
         <v>5</v>
       </c>
-      <c r="B36">
-        <v>2</v>
+      <c r="B36" t="s">
+        <v>57</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
       </c>
       <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
         <v>38</v>
       </c>
-      <c r="E36" t="s">
-        <v>35</v>
-      </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36">
-        <v>260</v>
+        <v>344</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1635,8 +1669,8 @@
       <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37">
-        <v>4</v>
+      <c r="B37" t="s">
+        <v>57</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1645,28 +1679,28 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G37">
-        <v>180</v>
+        <v>344</v>
       </c>
       <c r="H37">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>5</v>
       </c>
-      <c r="B38">
-        <v>4</v>
+      <c r="B38" t="s">
+        <v>57</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1675,323 +1709,234 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38">
-        <v>180</v>
+        <v>344</v>
       </c>
       <c r="H38">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B39">
-        <v>4</v>
+      <c r="B39" t="s">
+        <v>57</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="G39">
-        <v>180</v>
+        <v>344</v>
       </c>
       <c r="H39">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>5</v>
       </c>
-      <c r="B40">
-        <v>4</v>
+      <c r="B40" t="s">
+        <v>57</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G40">
-        <v>180</v>
+        <v>344</v>
       </c>
       <c r="H40">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>5</v>
       </c>
-      <c r="B41">
-        <v>4</v>
+      <c r="B41" t="s">
+        <v>57</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G41">
-        <v>180</v>
+        <v>344</v>
       </c>
       <c r="H41">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>5</v>
       </c>
-      <c r="B42">
-        <v>4</v>
+      <c r="B42" t="s">
+        <v>57</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
       </c>
       <c r="G42">
-        <v>180</v>
+        <v>344</v>
       </c>
       <c r="H42">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>5</v>
       </c>
-      <c r="B43">
-        <v>4</v>
+      <c r="B43" t="s">
+        <v>57</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G43">
-        <v>180</v>
+        <v>344</v>
       </c>
       <c r="H43">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" ref="I43" si="1">H43/G43*100</f>
-        <v>55.555555555555557</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>5</v>
       </c>
-      <c r="B44">
-        <v>4</v>
+      <c r="B44" t="s">
+        <v>57</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G44">
-        <v>180</v>
+        <v>344</v>
       </c>
       <c r="H44">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>5</v>
       </c>
-      <c r="B45">
-        <v>4</v>
+      <c r="B45" t="s">
+        <v>57</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G45">
-        <v>180</v>
+        <v>344</v>
       </c>
       <c r="H45">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46">
-        <v>180</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47">
-        <v>180</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48">
-        <v>180</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2008,10 +1953,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -4073,16 +4018,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4093,10 +4038,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4107,10 +4052,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4121,10 +4066,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4152,22 +4097,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4178,10 +4123,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3">
         <v>45659</v>
@@ -4195,13 +4140,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
       </c>
       <c r="E3" s="3">
         <v>45660</v>
@@ -4215,13 +4160,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3">
         <v>45661</v>
@@ -4238,10 +4183,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3">
         <v>45662</v>
@@ -4255,13 +4200,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3">
         <v>45663</v>
